--- a/Docs/Projects.xlsx
+++ b/Docs/Projects.xlsx
@@ -16,111 +16,278 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>专家名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专家单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专家分组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>B23</t>
-  </si>
-  <si>
-    <t>C34</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>B24</t>
-  </si>
-  <si>
-    <t>C35</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>B25</t>
-  </si>
-  <si>
-    <t>C36</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>B26</t>
-  </si>
-  <si>
-    <t>C37</t>
-  </si>
-  <si>
-    <t>A16</t>
-  </si>
-  <si>
-    <t>B27</t>
-  </si>
-  <si>
-    <t>C38</t>
-  </si>
-  <si>
-    <t>A17</t>
-  </si>
-  <si>
-    <t>B28</t>
-  </si>
-  <si>
-    <t>C39</t>
-  </si>
-  <si>
-    <t>A18</t>
-  </si>
-  <si>
-    <t>B29</t>
-  </si>
-  <si>
-    <t>C40</t>
-  </si>
-  <si>
-    <t>A19</t>
-  </si>
-  <si>
-    <t>B30</t>
-  </si>
-  <si>
-    <t>C41</t>
-  </si>
-  <si>
-    <t>A20</t>
-  </si>
-  <si>
-    <t>B31</t>
-  </si>
-  <si>
-    <t>C42</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>候选对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任导师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐专家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>I1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>I8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>I10</t>
   </si>
 </sst>
 </file>
@@ -464,20 +631,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,115 +649,280 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Projects.xlsx
+++ b/Docs/Projects.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推荐专家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,6 +284,18 @@
   </si>
   <si>
     <t>I10</t>
+  </si>
+  <si>
+    <t>推荐专家1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐专家2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐专家3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -634,7 +642,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -656,273 +664,273 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>51</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>53</v>
-      </c>
-      <c r="H7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>56</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>58</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
         <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>64</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>65</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>66</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>68</v>
-      </c>
-      <c r="H9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
         <v>70</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>72</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>73</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>74</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>75</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>76</v>
-      </c>
-      <c r="H10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
         <v>78</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>79</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>80</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>81</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>82</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>83</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>84</v>
-      </c>
-      <c r="H11" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Projects.xlsx
+++ b/Docs/Projects.xlsx
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,9 +96,6 @@
     <t>E2</t>
   </si>
   <si>
-    <t>F2</t>
-  </si>
-  <si>
     <t>G2</t>
   </si>
   <si>
@@ -124,177 +117,186 @@
     <t>F3</t>
   </si>
   <si>
-    <t>G3</t>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>I8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>推荐专家1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐专家2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐专家3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>B26</t>
   </si>
   <si>
     <t>I3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>B4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C4</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>I4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>I5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>I6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>I7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>I8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>I9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>I10</t>
-  </si>
-  <si>
-    <t>推荐专家1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐专家2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐专家3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +644,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -664,13 +666,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -687,13 +689,13 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -701,236 +703,236 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s">
         <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
         <v>69</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s">
         <v>77</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Projects.xlsx
+++ b/Docs/Projects.xlsx
@@ -343,9 +343,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,13 +644,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -934,6 +941,96 @@
       <c r="H11" t="s">
         <v>77</v>
       </c>
+    </row>
+    <row r="21" spans="9:21">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="9:21">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="9:21">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="9:21">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="9:21">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="9:21">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Docs/Projects.xlsx
+++ b/Docs/Projects.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,232 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>I1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>I2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>I5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>I6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>I7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>I8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>I9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>I10</t>
-  </si>
-  <si>
     <t>推荐专家1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,27 +50,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>B26</t>
-  </si>
-  <si>
-    <t>I3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C4</t>
+    <t>项目001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空1所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目002</t>
+  </si>
+  <si>
+    <t>申请人002</t>
+  </si>
+  <si>
+    <t>项目003</t>
+  </si>
+  <si>
+    <t>申请人003</t>
+  </si>
+  <si>
+    <t>航空3所</t>
+  </si>
+  <si>
+    <t>项目004</t>
+  </si>
+  <si>
+    <t>申请人004</t>
+  </si>
+  <si>
+    <t>航空4所</t>
+  </si>
+  <si>
+    <t>项目005</t>
+  </si>
+  <si>
+    <t>申请人005</t>
+  </si>
+  <si>
+    <t>航空5所</t>
+  </si>
+  <si>
+    <t>项目006</t>
+  </si>
+  <si>
+    <t>申请人006</t>
+  </si>
+  <si>
+    <t>项目007</t>
+  </si>
+  <si>
+    <t>申请人007</t>
+  </si>
+  <si>
+    <t>项目008</t>
+  </si>
+  <si>
+    <t>申请人008</t>
+  </si>
+  <si>
+    <t>项目009</t>
+  </si>
+  <si>
+    <t>申请人009</t>
+  </si>
+  <si>
+    <t>项目010</t>
+  </si>
+  <si>
+    <t>申请人010</t>
+  </si>
+  <si>
+    <t>航空2所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天1所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天3所</t>
+  </si>
+  <si>
+    <t>航天2所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天4所</t>
+  </si>
+  <si>
+    <t>航天5所</t>
+  </si>
+  <si>
+    <t>专家001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家003</t>
+  </si>
+  <si>
+    <t>专家004</t>
+  </si>
+  <si>
+    <t>专家005</t>
+  </si>
+  <si>
+    <t>专家006</t>
+  </si>
+  <si>
+    <t>专家007</t>
+  </si>
+  <si>
+    <t>专家008</t>
+  </si>
+  <si>
+    <t>专家009</t>
+  </si>
+  <si>
+    <t>专家010</t>
+  </si>
+  <si>
+    <t>专家011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,12 +573,13 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="H7" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
     <col min="6" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -673,273 +600,216 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
       </c>
-      <c r="G9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="9:21">

--- a/Docs/Projects.xlsx
+++ b/Docs/Projects.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,82 +50,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>申请人001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>航空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>航空1所</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目002</t>
-  </si>
-  <si>
     <t>申请人002</t>
   </si>
   <si>
-    <t>项目003</t>
-  </si>
-  <si>
     <t>申请人003</t>
   </si>
   <si>
     <t>航空3所</t>
   </si>
   <si>
-    <t>项目004</t>
-  </si>
-  <si>
     <t>申请人004</t>
   </si>
   <si>
     <t>航空4所</t>
   </si>
   <si>
-    <t>项目005</t>
-  </si>
-  <si>
     <t>申请人005</t>
   </si>
   <si>
     <t>航空5所</t>
   </si>
   <si>
-    <t>项目006</t>
-  </si>
-  <si>
     <t>申请人006</t>
   </si>
   <si>
-    <t>项目007</t>
-  </si>
-  <si>
     <t>申请人007</t>
   </si>
   <si>
-    <t>项目008</t>
-  </si>
-  <si>
     <t>申请人008</t>
   </si>
   <si>
-    <t>项目009</t>
-  </si>
-  <si>
     <t>申请人009</t>
   </si>
   <si>
-    <t>项目010</t>
-  </si>
-  <si>
     <t>申请人010</t>
   </si>
   <si>
@@ -133,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>航天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>航天1所</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +184,50 @@
   </si>
   <si>
     <t>专家020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国航天科技集团中国空间技术研究院项目001</t>
+  </si>
+  <si>
+    <t>中国航天科技集团中国空间技术研究院项目002</t>
+  </si>
+  <si>
+    <t>中国航天科技集团中国空间技术研究院项目003</t>
+  </si>
+  <si>
+    <t>中国航天科技集团中国空间技术研究院项目004</t>
+  </si>
+  <si>
+    <t>中国航天科技集团中国空间技术研究院项目005</t>
+  </si>
+  <si>
+    <t>中国航天科技集团中国空间技术研究院项目006</t>
+  </si>
+  <si>
+    <t>中国航天科技集团中国空间技术研究院项目007</t>
+  </si>
+  <si>
+    <t>中国航天科技集团中国空间技术研究院项目008</t>
+  </si>
+  <si>
+    <t>中国航天科技集团中国空间技术研究院项目009</t>
+  </si>
+  <si>
+    <t>中国航天科技集团中国空间技术研究院项目010</t>
+  </si>
+  <si>
+    <t>宇宙世界中国航空</t>
+  </si>
+  <si>
+    <t>宇宙世界中国航空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙世界中国航天</t>
+  </si>
+  <si>
+    <t>宇宙世界中国航天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,17 +578,18 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H8"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="43.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="6" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,205 +617,205 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
         <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
         <v>42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
         <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
         <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="9:21">
